--- a/raw_data/20200818_saline/20200818_Sensor3_Test_11.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_11.xlsx
@@ -1,2866 +1,3282 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC54AD-B815-4E2A-80DE-906512C5D5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>9556.430482</v>
+        <v>9556.4304819999998</v>
       </c>
       <c r="B2" s="1">
-        <v>2.654564</v>
+        <v>2.6545640000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1142.590000</v>
+        <v>1142.5899999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.099000</v>
+        <v>-257.09899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>9566.773558</v>
+        <v>9566.7735580000008</v>
       </c>
       <c r="G2" s="1">
-        <v>2.657437</v>
+        <v>2.6574369999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1164.620000</v>
+        <v>1164.6199999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-215.886000</v>
+        <v>-215.886</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>9576.964855</v>
+        <v>9576.9648550000002</v>
       </c>
       <c r="L2" s="1">
-        <v>2.660268</v>
+        <v>2.6602679999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1192.790000</v>
+        <v>1192.79</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.817000</v>
+        <v>-149.81700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>9587.450779</v>
+        <v>9587.4507790000007</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.663181</v>
+        <v>2.6631809999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1200.810000</v>
+        <v>1200.81</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.703000</v>
+        <v>-127.703</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>9598.021515</v>
+        <v>9598.0215150000004</v>
       </c>
       <c r="V2" s="1">
-        <v>2.666117</v>
+        <v>2.6661169999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1207.880000</v>
+        <v>1207.8800000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.923000</v>
+        <v>-106.923</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>9608.464784</v>
+        <v>9608.4647839999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.669018</v>
+        <v>2.6690179999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.813100</v>
+        <v>-89.813100000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>9619.037008</v>
+        <v>9619.0370079999993</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.671955</v>
+        <v>2.6719550000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1219.710000</v>
+        <v>1219.71</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.288200</v>
+        <v>-85.288200000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>9630.114658</v>
+        <v>9630.1146580000004</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.675032</v>
+        <v>2.6750319999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1226.640000</v>
+        <v>1226.6400000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.563500</v>
+        <v>-88.563500000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>9640.609012</v>
+        <v>9640.6090120000008</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.677947</v>
+        <v>2.6779470000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1234.480000</v>
+        <v>1234.48</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.378000</v>
+        <v>-100.378</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>9651.616726</v>
+        <v>9651.6167260000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.681005</v>
+        <v>2.6810049999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AW2" s="1">
-        <v>-119.501000</v>
+        <v>-119.501</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>9662.773586</v>
+        <v>9662.7735859999993</v>
       </c>
       <c r="AZ2" s="1">
         <v>2.684104</v>
       </c>
       <c r="BA2" s="1">
-        <v>1252.650000</v>
+        <v>1252.6500000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-136.760000</v>
+        <v>-136.76</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>9673.722768</v>
+        <v>9673.7227679999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.687145</v>
+        <v>2.6871450000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1292.070000</v>
+        <v>1292.07</v>
       </c>
       <c r="BG2" s="1">
-        <v>-217.815000</v>
+        <v>-217.815</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>9685.438425</v>
+        <v>9685.4384250000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.690400</v>
+        <v>2.6903999999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1360.100000</v>
+        <v>1360.1</v>
       </c>
       <c r="BL2" s="1">
-        <v>-353.173000</v>
+        <v>-353.173</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>9696.192186</v>
+        <v>9696.1921860000002</v>
       </c>
       <c r="BO2" s="1">
         <v>2.693387</v>
       </c>
       <c r="BP2" s="1">
-        <v>1471.570000</v>
+        <v>1471.57</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-574.868000</v>
+        <v>-574.86800000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>9706.626556</v>
+        <v>9706.6265559999993</v>
       </c>
       <c r="BT2" s="1">
         <v>2.696285</v>
       </c>
       <c r="BU2" s="1">
-        <v>1600.700000</v>
+        <v>1600.7</v>
       </c>
       <c r="BV2" s="1">
-        <v>-826.132000</v>
+        <v>-826.13199999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>9717.282607</v>
+        <v>9717.2826069999992</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.699245</v>
+        <v>2.6992449999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1750.180000</v>
+        <v>1750.18</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1101.560000</v>
+        <v>-1101.56</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>9728.238736</v>
+        <v>9728.2387359999993</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.702289</v>
+        <v>2.7022889999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2166.020000</v>
+        <v>2166.02</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1772.060000</v>
+        <v>-1772.06</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>9556.851586</v>
+        <v>9556.8515860000007</v>
       </c>
       <c r="B3" s="1">
-        <v>2.654681</v>
+        <v>2.6546810000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1141.500000</v>
+        <v>1141.5</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.314000</v>
+        <v>-258.31400000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>9566.883204</v>
+        <v>9566.8832039999998</v>
       </c>
       <c r="G3" s="1">
-        <v>2.657468</v>
+        <v>2.6574680000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.100000</v>
+        <v>1165.0999999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.117000</v>
+        <v>-216.11699999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>9577.320487</v>
+        <v>9577.3204870000009</v>
       </c>
       <c r="L3" s="1">
-        <v>2.660367</v>
+        <v>2.6603669999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1192.900000</v>
+        <v>1192.9000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.914000</v>
+        <v>-149.91399999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>9587.835178</v>
+        <v>9587.8351779999994</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.663288</v>
+        <v>2.6632880000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1200.860000</v>
+        <v>1200.8599999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.762000</v>
+        <v>-127.762</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>9598.397484</v>
+        <v>9598.3974839999992</v>
       </c>
       <c r="V3" s="1">
-        <v>2.666222</v>
+        <v>2.6662219999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1207.880000</v>
+        <v>1207.8800000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.817000</v>
+        <v>-106.81699999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>9608.850173</v>
+        <v>9608.8501730000007</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.669125</v>
+        <v>2.6691250000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.698200</v>
+        <v>-89.6982</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>9619.751770</v>
+        <v>9619.7517700000008</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.672153</v>
+        <v>2.6721529999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1219.680000</v>
+        <v>1219.68</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.299300</v>
+        <v>-85.299300000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>9630.465329</v>
+        <v>9630.4653290000006</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.675129</v>
+        <v>2.6751290000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1226.640000</v>
+        <v>1226.6400000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.591000</v>
+        <v>-88.590999999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>9641.000852</v>
+        <v>9641.0008519999992</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.678056</v>
+        <v>2.6780560000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.380000</v>
+        <v>-100.38</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>9651.985285</v>
+        <v>9651.9852850000007</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.681107</v>
+        <v>2.6811069999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AW3" s="1">
-        <v>-119.485000</v>
+        <v>-119.485</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>9663.467669</v>
+        <v>9663.4676689999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.684297</v>
+        <v>2.6842969999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-136.740000</v>
+        <v>-136.74</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>9674.410903</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.687336</v>
+        <v>2.6873360000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG3" s="1">
-        <v>-217.792000</v>
+        <v>-217.792</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>9685.546088</v>
+        <v>9685.5460879999991</v>
       </c>
       <c r="BJ3" s="1">
         <v>2.690429</v>
       </c>
       <c r="BK3" s="1">
-        <v>1360.100000</v>
+        <v>1360.1</v>
       </c>
       <c r="BL3" s="1">
-        <v>-353.120000</v>
+        <v>-353.12</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>9696.312714</v>
+        <v>9696.3127139999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.693420</v>
+        <v>2.6934200000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-574.906000</v>
+        <v>-574.90599999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>9707.087311</v>
+        <v>9707.0873109999993</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.696413</v>
+        <v>2.6964130000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1600.830000</v>
+        <v>1600.83</v>
       </c>
       <c r="BV3" s="1">
-        <v>-826.279000</v>
+        <v>-826.279</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>9717.747325</v>
+        <v>9717.7473250000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.699374</v>
+        <v>2.6993740000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1750.160000</v>
+        <v>1750.16</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1101.510000</v>
+        <v>-1101.51</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>9728.830431</v>
+        <v>9728.8304310000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.702453</v>
+        <v>2.7024530000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>2164.950000</v>
+        <v>2164.9499999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1770.440000</v>
+        <v>-1770.44</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>9557.149187</v>
+        <v>9557.1491870000009</v>
       </c>
       <c r="B4" s="1">
-        <v>2.654764</v>
+        <v>2.6547640000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1141.850000</v>
+        <v>1141.8499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.156000</v>
+        <v>-258.15600000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>9567.221444</v>
+        <v>9567.2214440000007</v>
       </c>
       <c r="G4" s="1">
         <v>2.657562</v>
       </c>
       <c r="H4" s="1">
-        <v>1165.440000</v>
+        <v>1165.44</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.950000</v>
+        <v>-215.95</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>9577.668678</v>
       </c>
       <c r="L4" s="1">
-        <v>2.660464</v>
+        <v>2.6604640000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.190000</v>
+        <v>1193.19</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.741000</v>
+        <v>-149.74100000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>9588.184393</v>
+        <v>9588.1843929999995</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.663385</v>
+        <v>2.6633849999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.787000</v>
+        <v>-127.78700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>9599.083450</v>
+        <v>9599.0834500000001</v>
       </c>
       <c r="V4" s="1">
-        <v>2.666412</v>
+        <v>2.6664119999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>1207.880000</v>
+        <v>1207.8800000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.887000</v>
+        <v>-106.887</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>9609.545566</v>
+        <v>9609.5455660000007</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.669318</v>
+        <v>2.6693180000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.718400</v>
+        <v>-89.718400000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>9620.096462</v>
+        <v>9620.0964619999995</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.672249</v>
+        <v>2.6722489999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1219.710000</v>
+        <v>1219.71</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.303300</v>
+        <v>-85.303299999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>9630.815041</v>
+        <v>9630.8150409999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.675226</v>
+        <v>2.6752259999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1226.640000</v>
+        <v>1226.6400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.588400</v>
+        <v>-88.588399999999993</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>9641.382276</v>
+        <v>9641.3822760000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.678162</v>
+        <v>2.6781619999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.386000</v>
+        <v>-100.386</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>9652.646916</v>
+        <v>9652.6469159999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.681291</v>
+        <v>2.6812909999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AW4" s="1">
-        <v>-119.480000</v>
+        <v>-119.48</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>9663.876372</v>
+        <v>9663.8763720000006</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.684410</v>
+        <v>2.6844100000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-136.803000</v>
+        <v>-136.803</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>9674.831480</v>
+        <v>9674.8314800000007</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.687453</v>
+        <v>2.6874530000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG4" s="1">
-        <v>-217.814000</v>
+        <v>-217.81399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>9685.921564</v>
+        <v>9685.9215640000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>2.690534</v>
       </c>
       <c r="BK4" s="1">
-        <v>1360.110000</v>
+        <v>1360.11</v>
       </c>
       <c r="BL4" s="1">
-        <v>-353.114000</v>
+        <v>-353.11399999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>9696.715993</v>
+        <v>9696.7159929999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.693532</v>
+        <v>2.6935319999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-574.889000</v>
+        <v>-574.88900000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>9707.502475</v>
+        <v>9707.5024749999993</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.696528</v>
+        <v>2.6965279999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1601.000000</v>
+        <v>1601</v>
       </c>
       <c r="BV4" s="1">
-        <v>-826.487000</v>
+        <v>-826.48699999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>9718.193261</v>
+        <v>9718.1932610000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.699498</v>
+        <v>2.6994980000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1749.990000</v>
+        <v>1749.99</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1101.540000</v>
+        <v>-1101.54</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>9729.372558</v>
+        <v>9729.3725579999991</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.702603</v>
+        <v>2.7026029999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2164.150000</v>
+        <v>2164.15</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1772.510000</v>
+        <v>-1772.51</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>9557.491921</v>
+        <v>9557.4919210000007</v>
       </c>
       <c r="B5" s="1">
-        <v>2.654859</v>
+        <v>2.6548590000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1141.850000</v>
+        <v>1141.8499999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.097000</v>
+        <v>-258.09699999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>9567.567156</v>
+        <v>9567.5671559999992</v>
       </c>
       <c r="G5" s="1">
-        <v>2.657658</v>
+        <v>2.6576580000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.060000</v>
+        <v>1165.06</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.277000</v>
+        <v>-215.27699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>9578.359605</v>
+        <v>9578.3596049999996</v>
       </c>
       <c r="L5" s="1">
-        <v>2.660655</v>
+        <v>2.6606550000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1192.910000</v>
+        <v>1192.9100000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.846000</v>
+        <v>-149.846</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>9588.882233</v>
+        <v>9588.8822330000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.663578</v>
+        <v>2.6635779999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1200.710000</v>
+        <v>1200.71</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.717000</v>
+        <v>-127.717</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>9599.426186</v>
+        <v>9599.4261860000006</v>
       </c>
       <c r="V5" s="1">
-        <v>2.666507</v>
+        <v>2.6665070000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1207.870000</v>
+        <v>1207.8699999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.817000</v>
+        <v>-106.81699999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>9609.895015</v>
+        <v>9609.8950150000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.669415</v>
+        <v>2.6694149999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.692500</v>
+        <v>-89.692499999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>9620.438206</v>
+        <v>9620.4382060000007</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.672344</v>
+        <v>2.6723439999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1219.710000</v>
+        <v>1219.71</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.313500</v>
+        <v>-85.313500000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>9631.460832</v>
+        <v>9631.4608320000007</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.675406</v>
+        <v>2.6754060000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1226.630000</v>
+        <v>1226.6300000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.569500</v>
+        <v>-88.569500000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>9642.043937</v>
+        <v>9642.0439370000004</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.678346</v>
+        <v>2.6783459999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1234.430000</v>
+        <v>1234.43</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.371000</v>
+        <v>-100.371</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>9653.107821</v>
+        <v>9653.1078209999996</v>
       </c>
       <c r="AU5" s="1">
         <v>2.681419</v>
       </c>
       <c r="AV5" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AW5" s="1">
-        <v>-119.505000</v>
+        <v>-119.505</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>9664.238453</v>
+        <v>9664.2384529999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.684511</v>
+        <v>2.6845110000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-136.783000</v>
+        <v>-136.78299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>9675.195543</v>
+        <v>9675.1955429999998</v>
       </c>
       <c r="BE5" s="1">
         <v>2.687554</v>
       </c>
       <c r="BF5" s="1">
-        <v>1292.040000</v>
+        <v>1292.04</v>
       </c>
       <c r="BG5" s="1">
-        <v>-217.797000</v>
+        <v>-217.797</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>9686.297031</v>
+        <v>9686.2970310000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.690638</v>
+        <v>2.6906379999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1360.080000</v>
+        <v>1360.08</v>
       </c>
       <c r="BL5" s="1">
-        <v>-353.158000</v>
+        <v>-353.15800000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>9697.113754</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.693643</v>
+        <v>2.6936429999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-574.936000</v>
+        <v>-574.93600000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>9707.925548</v>
+        <v>9707.9255479999993</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.696646</v>
+        <v>2.6966459999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1601.030000</v>
+        <v>1601.03</v>
       </c>
       <c r="BV5" s="1">
-        <v>-826.708000</v>
+        <v>-826.70799999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>9718.627260</v>
+        <v>9718.6272599999993</v>
       </c>
       <c r="BY5" s="1">
-        <v>2.699619</v>
+        <v>2.6996190000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1750.030000</v>
+        <v>1750.03</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1101.610000</v>
+        <v>-1101.6099999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>9729.911246</v>
+        <v>9729.9112459999997</v>
       </c>
       <c r="CD5" s="1">
         <v>2.702753</v>
       </c>
       <c r="CE5" s="1">
-        <v>2166.160000</v>
+        <v>2166.16</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1770.990000</v>
+        <v>-1770.99</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>9558.174950</v>
+        <v>9558.1749500000005</v>
       </c>
       <c r="B6" s="1">
         <v>2.655049</v>
       </c>
       <c r="C6" s="1">
-        <v>1142.000000</v>
+        <v>1142</v>
       </c>
       <c r="D6" s="1">
-        <v>-258.196000</v>
+        <v>-258.19600000000003</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>9568.253619</v>
+        <v>9568.2536189999992</v>
       </c>
       <c r="G6" s="1">
         <v>2.657848</v>
       </c>
       <c r="H6" s="1">
-        <v>1164.800000</v>
+        <v>1164.8</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.520000</v>
+        <v>-215.52</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>9578.705814</v>
+        <v>9578.7058140000008</v>
       </c>
       <c r="L6" s="1">
         <v>2.660752</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.130000</v>
+        <v>1193.1300000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.003000</v>
+        <v>-150.00299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>9589.232439</v>
+        <v>9589.2324389999994</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.663676</v>
+        <v>2.6636760000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.702000</v>
+        <v>-127.702</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>9599.775371</v>
+        <v>9599.7753709999997</v>
       </c>
       <c r="V6" s="1">
         <v>2.666604</v>
       </c>
       <c r="W6" s="1">
-        <v>1207.880000</v>
+        <v>1207.8800000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.762000</v>
+        <v>-106.762</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>9610.547980</v>
+        <v>9610.5479799999994</v>
       </c>
       <c r="AA6" s="1">
         <v>2.669597</v>
       </c>
       <c r="AB6" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.813600</v>
+        <v>-89.813599999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>9621.076557</v>
+        <v>9621.0765570000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.672521</v>
+        <v>2.6725210000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.342200</v>
+        <v>-85.342200000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>9631.860607</v>
+        <v>9631.8606070000005</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.675517</v>
+        <v>2.6755170000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1226.630000</v>
+        <v>1226.6300000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.549000</v>
+        <v>-88.549000000000007</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>9642.465569</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.678463</v>
+        <v>2.6784629999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.382000</v>
+        <v>-100.38200000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>9653.472259</v>
+        <v>9653.4722590000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.681520</v>
+        <v>2.6815199999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AW6" s="1">
-        <v>-119.499000</v>
+        <v>-119.499</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>9664.596035</v>
+        <v>9664.5960350000005</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.684610</v>
+        <v>2.6846100000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-136.745000</v>
+        <v>-136.745</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>9675.555141</v>
+        <v>9675.5551410000007</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.687654</v>
+        <v>2.6876540000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1292.010000</v>
+        <v>1292.01</v>
       </c>
       <c r="BG6" s="1">
-        <v>-217.785000</v>
+        <v>-217.785</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>9686.696279</v>
+        <v>9686.6962789999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.690749</v>
+        <v>2.6907489999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1360.100000</v>
+        <v>1360.1</v>
       </c>
       <c r="BL6" s="1">
-        <v>-353.164000</v>
+        <v>-353.16399999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>9697.530890</v>
+        <v>9697.53089</v>
       </c>
       <c r="BO6" s="1">
         <v>2.693759</v>
       </c>
       <c r="BP6" s="1">
-        <v>1471.540000</v>
+        <v>1471.54</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-574.949000</v>
+        <v>-574.94899999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>9708.331807</v>
+        <v>9708.3318070000005</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.696759</v>
+        <v>2.6967590000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1601.050000</v>
+        <v>1601.05</v>
       </c>
       <c r="BV6" s="1">
-        <v>-827.037000</v>
+        <v>-827.03700000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>9719.046876</v>
+        <v>9719.0468760000003</v>
       </c>
       <c r="BY6" s="1">
         <v>2.699735</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1750.210000</v>
+        <v>1750.21</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1101.670000</v>
+        <v>-1101.67</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>9730.452881</v>
+        <v>9730.4528809999993</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.702904</v>
+        <v>2.7029040000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>2164.030000</v>
+        <v>2164.0300000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1771.210000</v>
+        <v>-1771.21</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>9558.523104</v>
+        <v>9558.5231039999999</v>
       </c>
       <c r="B7" s="1">
-        <v>2.655145</v>
+        <v>2.6551450000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1141.620000</v>
+        <v>1141.6199999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-257.986000</v>
+        <v>-257.98599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>9568.598645</v>
       </c>
       <c r="G7" s="1">
-        <v>2.657944</v>
+        <v>2.6579440000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.080000</v>
+        <v>1165.08</v>
       </c>
       <c r="I7" s="1">
-        <v>-215.322000</v>
+        <v>-215.322</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>9579.051030</v>
+        <v>9579.0510300000005</v>
       </c>
       <c r="L7" s="1">
-        <v>2.660848</v>
+        <v>2.6608480000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.340000</v>
+        <v>1193.3399999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.117000</v>
+        <v>-150.11699999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>9589.579620</v>
+        <v>9589.5796200000004</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.663772</v>
+        <v>2.6637719999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1200.750000</v>
+        <v>1200.75</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.704000</v>
+        <v>-127.70399999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>9600.419705</v>
+        <v>9600.4197050000002</v>
       </c>
       <c r="V7" s="1">
-        <v>2.666783</v>
+        <v>2.6667830000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1207.870000</v>
+        <v>1207.8699999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.833000</v>
+        <v>-106.833</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>9610.942796</v>
+        <v>9610.9427959999994</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.669706</v>
+        <v>2.6697060000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1215.330000</v>
+        <v>1215.33</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.968700</v>
+        <v>-89.968699999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>9621.468396</v>
+        <v>9621.4683960000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.672630</v>
+        <v>2.6726299999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1219.680000</v>
+        <v>1219.68</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.265900</v>
+        <v>-85.265900000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>9632.208271</v>
+        <v>9632.2082709999995</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.675613</v>
+        <v>2.6756129999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1226.630000</v>
+        <v>1226.6300000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.567800</v>
+        <v>-88.567800000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>9642.849936</v>
+        <v>9642.8499360000005</v>
       </c>
       <c r="AP7" s="1">
         <v>2.678569</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.372000</v>
+        <v>-100.372</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>9653.834834</v>
+        <v>9653.8348339999993</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.681621</v>
+        <v>2.6816209999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1244.300000</v>
+        <v>1244.3</v>
       </c>
       <c r="AW7" s="1">
-        <v>-119.502000</v>
+        <v>-119.502</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>9665.005765</v>
+        <v>9665.0057649999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.684724</v>
+        <v>2.6847240000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1252.650000</v>
+        <v>1252.6500000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-136.747000</v>
+        <v>-136.74700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>9675.982196</v>
+        <v>9675.9821960000008</v>
       </c>
       <c r="BE7" s="1">
         <v>2.687773</v>
       </c>
       <c r="BF7" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG7" s="1">
-        <v>-217.853000</v>
+        <v>-217.85300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>9687.043975</v>
+        <v>9687.0439750000005</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.690846</v>
+        <v>2.6908460000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1360.130000</v>
+        <v>1360.13</v>
       </c>
       <c r="BL7" s="1">
-        <v>-353.193000</v>
+        <v>-353.19299999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>9697.928685</v>
+        <v>9697.9286850000008</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.693869</v>
+        <v>2.6938689999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-574.838000</v>
+        <v>-574.83799999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>9708.748905</v>
+        <v>9708.7489050000004</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.696875</v>
+        <v>2.6968749999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1600.830000</v>
+        <v>1600.83</v>
       </c>
       <c r="BV7" s="1">
-        <v>-827.048000</v>
+        <v>-827.048</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>9719.469446</v>
+        <v>9719.4694459999992</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.699853</v>
+        <v>2.6998530000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1750.000000</v>
+        <v>1750</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1101.660000</v>
+        <v>-1101.6600000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>9730.990048</v>
+        <v>9730.9900479999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.703053</v>
+        <v>2.7030530000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>2165.320000</v>
+        <v>2165.3200000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1772.630000</v>
+        <v>-1772.63</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>9558.866149</v>
+        <v>9558.8661489999995</v>
       </c>
       <c r="B8" s="1">
-        <v>2.655241</v>
+        <v>2.6552410000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1141.550000</v>
+        <v>1141.55</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.892000</v>
+        <v>-257.892</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>9568.944546</v>
+        <v>9568.9445460000006</v>
       </c>
       <c r="G8" s="1">
-        <v>2.658040</v>
+        <v>2.6580400000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1164.910000</v>
+        <v>1164.9100000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.485000</v>
+        <v>-216.48500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>9579.702799</v>
+        <v>9579.7027990000006</v>
       </c>
       <c r="L8" s="1">
-        <v>2.661029</v>
+        <v>2.6610290000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1193.130000</v>
+        <v>1193.1300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.972000</v>
+        <v>-149.97200000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>9590.233830</v>
+        <v>9590.2338299999992</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.663954</v>
+        <v>2.6639539999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1200.800000</v>
+        <v>1200.8</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.768000</v>
+        <v>-127.768</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>9600.804073</v>
+        <v>9600.8040729999993</v>
       </c>
       <c r="V8" s="1">
-        <v>2.666890</v>
+        <v>2.66689</v>
       </c>
       <c r="W8" s="1">
-        <v>1207.900000</v>
+        <v>1207.9000000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.834000</v>
+        <v>-106.834</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>9611.289994</v>
+        <v>9611.2899940000007</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.669803</v>
+        <v>2.6698029999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.706600</v>
+        <v>-89.706599999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>9621.814108</v>
+        <v>9621.8141080000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.672726</v>
+        <v>2.6727259999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1219.700000</v>
+        <v>1219.7</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.292900</v>
+        <v>-85.292900000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>9632.554479</v>
+        <v>9632.5544790000004</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.675710</v>
+        <v>2.67571</v>
       </c>
       <c r="AL8" s="1">
-        <v>1226.600000</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.573600</v>
+        <v>-88.573599999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>9643.210528</v>
+        <v>9643.2105279999996</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.678670</v>
+        <v>2.6786699999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1234.470000</v>
+        <v>1234.47</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.352000</v>
+        <v>-100.352</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>9654.257921</v>
+        <v>9654.2579210000004</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.681738</v>
+        <v>2.6817380000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AW8" s="1">
-        <v>-119.480000</v>
+        <v>-119.48</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>9665.314244</v>
+        <v>9665.3142439999992</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.684810</v>
+        <v>2.6848100000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-136.792000</v>
+        <v>-136.792</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>9676.278309</v>
+        <v>9676.2783089999994</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.687855</v>
+        <v>2.6878549999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG8" s="1">
-        <v>-217.828000</v>
+        <v>-217.828</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>9687.445238</v>
+        <v>9687.4452380000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>2.690957</v>
       </c>
       <c r="BK8" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="BL8" s="1">
-        <v>-353.142000</v>
+        <v>-353.142</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>9698.345856</v>
+        <v>9698.3458559999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.693985</v>
+        <v>2.6939850000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1471.520000</v>
+        <v>1471.52</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-574.892000</v>
+        <v>-574.89200000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>9709.165049</v>
+        <v>9709.1650489999993</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.696990</v>
+        <v>2.69699</v>
       </c>
       <c r="BU8" s="1">
-        <v>1600.610000</v>
+        <v>1600.61</v>
       </c>
       <c r="BV8" s="1">
-        <v>-827.115000</v>
+        <v>-827.11500000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>9719.895519</v>
+        <v>9719.8955189999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.699971</v>
+        <v>2.6999710000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1750.030000</v>
+        <v>1750.03</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1101.710000</v>
+        <v>-1101.71</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>9731.531148</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.703203</v>
+        <v>2.7032029999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>2165.720000</v>
+        <v>2165.7199999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1770.580000</v>
+        <v>-1770.58</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>9559.518116</v>
+        <v>9559.5181159999993</v>
       </c>
       <c r="B9" s="1">
-        <v>2.655422</v>
+        <v>2.6554220000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1142.260000</v>
+        <v>1142.26</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.111000</v>
+        <v>-257.11099999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>9569.597779</v>
+        <v>9569.5977789999997</v>
       </c>
       <c r="G9" s="1">
-        <v>2.658222</v>
+        <v>2.6582219999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.550000</v>
+        <v>1165.55</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.083000</v>
+        <v>-216.083</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>9580.086211</v>
+        <v>9580.0862109999998</v>
       </c>
       <c r="L9" s="1">
-        <v>2.661135</v>
+        <v>2.6611349999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.190000</v>
+        <v>1193.19</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.579000</v>
+        <v>-149.57900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>9590.625208</v>
+        <v>9590.6252079999995</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.664063</v>
+        <v>2.6640630000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1200.760000</v>
+        <v>1200.76</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.747000</v>
+        <v>-127.747</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>9601.148791</v>
+        <v>9601.1487909999996</v>
       </c>
       <c r="V9" s="1">
-        <v>2.666986</v>
+        <v>2.6669860000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1207.870000</v>
+        <v>1207.8699999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.863000</v>
+        <v>-106.863</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>9611.637194</v>
+        <v>9611.6371940000008</v>
       </c>
       <c r="AA9" s="1">
         <v>2.669899</v>
       </c>
       <c r="AB9" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.819300</v>
+        <v>-89.819299999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>9622.160811</v>
+        <v>9622.1608109999997</v>
       </c>
       <c r="AF9" s="1">
         <v>2.672822</v>
       </c>
       <c r="AG9" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.275100</v>
+        <v>-85.275099999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>9632.970157</v>
+        <v>9632.9701569999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.675825</v>
+        <v>2.6758250000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1226.660000</v>
+        <v>1226.6600000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.581800</v>
+        <v>-88.581800000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>9643.637125</v>
+        <v>9643.6371249999993</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.678788</v>
+        <v>2.6787879999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1234.470000</v>
+        <v>1234.47</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.369000</v>
+        <v>-100.369</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>9654.564449</v>
+        <v>9654.5644489999995</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.681823</v>
+        <v>2.6818230000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AW9" s="1">
-        <v>-119.502000</v>
+        <v>-119.502</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>9665.673523</v>
+        <v>9665.6735229999995</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.684909</v>
+        <v>2.6849090000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-136.752000</v>
+        <v>-136.75200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>9676.639200</v>
+        <v>9676.6391999999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.687955</v>
+        <v>2.6879550000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG9" s="1">
-        <v>-217.819000</v>
+        <v>-217.81899999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>9687.824677</v>
+        <v>9687.8246770000005</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.691062</v>
+        <v>2.6910620000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1360.110000</v>
+        <v>1360.11</v>
       </c>
       <c r="BL9" s="1">
-        <v>-353.169000</v>
+        <v>-353.16899999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>9698.759478</v>
+        <v>9698.7594779999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.694100</v>
+        <v>2.6941000000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1471.500000</v>
+        <v>1471.5</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-574.930000</v>
+        <v>-574.92999999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>9709.592600</v>
+        <v>9709.5925999999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.697109</v>
+        <v>2.6971090000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1600.400000</v>
+        <v>1600.4</v>
       </c>
       <c r="BV9" s="1">
-        <v>-827.244000</v>
+        <v>-827.24400000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>9720.310154</v>
+        <v>9720.3101540000007</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.700086</v>
+        <v>2.7000860000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1750.250000</v>
+        <v>1750.25</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1101.570000</v>
+        <v>-1101.57</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>9732.070302</v>
+        <v>9732.0703020000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.703353</v>
+        <v>2.7033529999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2163.730000</v>
+        <v>2163.73</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1771.810000</v>
+        <v>-1771.81</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>9559.887630</v>
+        <v>9559.8876299999993</v>
       </c>
       <c r="B10" s="1">
-        <v>2.655524</v>
+        <v>2.6555240000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1143.140000</v>
+        <v>1143.1400000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.319000</v>
+        <v>-257.31900000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>9569.981878</v>
+        <v>9569.9818780000005</v>
       </c>
       <c r="G10" s="1">
         <v>2.658328</v>
       </c>
       <c r="H10" s="1">
-        <v>1165.160000</v>
+        <v>1165.1600000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.729000</v>
+        <v>-215.72900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>9580.430901</v>
+        <v>9580.4309009999997</v>
       </c>
       <c r="L10" s="1">
-        <v>2.661231</v>
+        <v>2.6612309999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.020000</v>
+        <v>1193.02</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.862000</v>
+        <v>-149.86199999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>9590.972373</v>
+        <v>9590.9723730000005</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.664159</v>
+        <v>2.6641590000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1200.670000</v>
+        <v>1200.67</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.761000</v>
+        <v>-127.761</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>9601.492024</v>
+        <v>9601.4920239999992</v>
       </c>
       <c r="V10" s="1">
         <v>2.667081</v>
       </c>
       <c r="W10" s="1">
-        <v>1207.840000</v>
+        <v>1207.8399999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.796000</v>
+        <v>-106.79600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>9612.052377</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.670015</v>
+        <v>2.6700149999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1215.020000</v>
+        <v>1215.02</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.998500</v>
+        <v>-89.998500000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>9622.565084</v>
+        <v>9622.5650839999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.672935</v>
+        <v>2.6729349999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1219.650000</v>
+        <v>1219.6500000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.302100</v>
+        <v>-85.302099999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>9633.267725</v>
+        <v>9633.2677249999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.675908</v>
+        <v>2.6759080000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1226.620000</v>
+        <v>1226.6199999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.584100</v>
+        <v>-88.584100000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>9643.931215</v>
+        <v>9643.9312150000005</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.678870</v>
+        <v>2.6788699999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.377000</v>
+        <v>-100.377</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>9654.930000</v>
+        <v>9654.93</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.681925</v>
+        <v>2.6819250000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AW10" s="1">
-        <v>-119.495000</v>
+        <v>-119.495</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>9666.030999</v>
+        <v>9666.0309990000005</v>
       </c>
       <c r="AZ10" s="1">
         <v>2.685009</v>
       </c>
       <c r="BA10" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-136.782000</v>
+        <v>-136.78200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>9677.001971</v>
+        <v>9677.0019709999997</v>
       </c>
       <c r="BE10" s="1">
         <v>2.688056</v>
       </c>
       <c r="BF10" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG10" s="1">
-        <v>-217.793000</v>
+        <v>-217.79300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>9688.572148</v>
+        <v>9688.5721479999993</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.691270</v>
+        <v>2.6912699999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1360.110000</v>
+        <v>1360.11</v>
       </c>
       <c r="BL10" s="1">
-        <v>-353.153000</v>
+        <v>-353.15300000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>9699.170358</v>
+        <v>9699.1703579999994</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.694214</v>
+        <v>2.6942140000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1471.560000</v>
+        <v>1471.56</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-574.906000</v>
+        <v>-574.90599999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>9709.996380</v>
+        <v>9709.9963800000005</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.697221</v>
+        <v>2.6972209999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1600.210000</v>
+        <v>1600.21</v>
       </c>
       <c r="BV10" s="1">
-        <v>-827.081000</v>
+        <v>-827.08100000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>9720.765977</v>
+        <v>9720.7659769999991</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.700213</v>
+        <v>2.7002130000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1750.080000</v>
+        <v>1750.08</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1101.620000</v>
+        <v>-1101.6199999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>9732.613445</v>
+        <v>9732.6134450000009</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.703504</v>
+        <v>2.7035040000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2166.220000</v>
+        <v>2166.2199999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1772.130000</v>
+        <v>-1772.13</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>9560.233311</v>
       </c>
       <c r="B11" s="1">
-        <v>2.655620</v>
+        <v>2.6556199999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1143.430000</v>
+        <v>1143.43</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.292000</v>
+        <v>-257.29199999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>9570.329409</v>
+        <v>9570.3294089999999</v>
       </c>
       <c r="G11" s="1">
-        <v>2.658425</v>
+        <v>2.6584249999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1165.270000</v>
+        <v>1165.27</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.586000</v>
+        <v>-215.58600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>9580.778100</v>
+        <v>9580.7780999999995</v>
       </c>
       <c r="L11" s="1">
         <v>2.661327</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.350000</v>
+        <v>1193.3499999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.837000</v>
+        <v>-149.83699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>9591.320598</v>
+        <v>9591.3205980000002</v>
       </c>
       <c r="Q11" s="1">
         <v>2.664256</v>
       </c>
       <c r="R11" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.722000</v>
+        <v>-127.72199999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>9601.909655</v>
+        <v>9601.9096549999995</v>
       </c>
       <c r="V11" s="1">
-        <v>2.667197</v>
+        <v>2.6671969999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1207.980000</v>
+        <v>1207.98</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.808000</v>
+        <v>-106.80800000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>9612.333611</v>
@@ -2869,58 +3285,58 @@
         <v>2.670093</v>
       </c>
       <c r="AB11" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.717900</v>
+        <v>-89.7179</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>9622.863147</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.673018</v>
+        <v>2.6730179999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1219.710000</v>
+        <v>1219.71</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.302300</v>
+        <v>-85.302300000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>9633.616414</v>
+        <v>9633.6164140000001</v>
       </c>
       <c r="AK11" s="1">
         <v>2.676005</v>
       </c>
       <c r="AL11" s="1">
-        <v>1226.620000</v>
+        <v>1226.6199999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.580300</v>
+        <v>-88.580299999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>9644.289327</v>
+        <v>9644.2893270000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.678969</v>
+        <v>2.6789689999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1234.470000</v>
+        <v>1234.47</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.389000</v>
+        <v>-100.389</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>9655.294065</v>
@@ -2929,103 +3345,103 @@
         <v>2.682026</v>
       </c>
       <c r="AV11" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AW11" s="1">
-        <v>-119.490000</v>
+        <v>-119.49</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>9666.748213</v>
+        <v>9666.7482130000008</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.685208</v>
+        <v>2.6852079999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1252.600000</v>
+        <v>1252.5999999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-136.781000</v>
+        <v>-136.78100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>9677.721667</v>
+        <v>9677.7216669999998</v>
       </c>
       <c r="BE11" s="1">
         <v>2.688256</v>
       </c>
       <c r="BF11" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG11" s="1">
-        <v>-217.826000</v>
+        <v>-217.82599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>9688.950596</v>
+        <v>9688.9505960000006</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.691375</v>
+        <v>2.6913749999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1360.090000</v>
+        <v>1360.09</v>
       </c>
       <c r="BL11" s="1">
-        <v>-353.165000</v>
+        <v>-353.16500000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>9699.564022</v>
+        <v>9699.5640220000005</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.694323</v>
+        <v>2.6943229999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1471.540000</v>
+        <v>1471.54</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-574.949000</v>
+        <v>-574.94899999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>9710.412520</v>
+        <v>9710.4125199999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.697337</v>
+        <v>2.6973370000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1600.100000</v>
+        <v>1600.1</v>
       </c>
       <c r="BV11" s="1">
-        <v>-826.914000</v>
+        <v>-826.91399999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>9721.532330</v>
+        <v>9721.53233</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.700426</v>
+        <v>2.7004260000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1750.060000</v>
+        <v>1750.06</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1101.670000</v>
+        <v>-1101.67</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>9733.524109</v>
@@ -3034,1163 +3450,1163 @@
         <v>2.703757</v>
       </c>
       <c r="CE11" s="1">
-        <v>2163.860000</v>
+        <v>2163.86</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1772.230000</v>
+        <v>-1772.23</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>9560.571088</v>
+        <v>9560.5710880000006</v>
       </c>
       <c r="B12" s="1">
-        <v>2.655714</v>
+        <v>2.6557140000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1143.550000</v>
+        <v>1143.55</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.101000</v>
+        <v>-257.101</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>9570.672640</v>
+        <v>9570.6726400000007</v>
       </c>
       <c r="G12" s="1">
-        <v>2.658520</v>
+        <v>2.6585200000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1165.630000</v>
+        <v>1165.6300000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.453000</v>
+        <v>-215.453</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>9581.189778</v>
+        <v>9581.1897779999999</v>
       </c>
       <c r="L12" s="1">
-        <v>2.661442</v>
+        <v>2.6614420000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1193.070000</v>
+        <v>1193.07</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.486000</v>
+        <v>-149.48599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>9591.769977</v>
+        <v>9591.7699769999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.664381</v>
+        <v>2.6643810000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1200.760000</v>
+        <v>1200.76</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.672000</v>
+        <v>-127.672</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>9602.186454</v>
+        <v>9602.1864540000006</v>
       </c>
       <c r="V12" s="1">
-        <v>2.667274</v>
+        <v>2.6672739999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1207.730000</v>
+        <v>1207.73</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.869000</v>
+        <v>-106.869</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>9612.683752</v>
+        <v>9612.6837520000008</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.670190</v>
+        <v>2.6701899999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.877900</v>
+        <v>-89.877899999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>9623.207866</v>
+        <v>9623.2078660000006</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.673113</v>
+        <v>2.6731129999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.254600</v>
+        <v>-85.254599999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>9633.962156</v>
+        <v>9633.9621559999996</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.676101</v>
+        <v>2.6761010000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1226.650000</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.565600</v>
+        <v>-88.565600000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>9644.665823</v>
+        <v>9644.6658229999994</v>
       </c>
       <c r="AP12" s="1">
         <v>2.679074</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1234.490000</v>
+        <v>1234.49</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.388000</v>
+        <v>-100.38800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>9656.029631</v>
+        <v>9656.0296309999994</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.682230</v>
+        <v>2.6822300000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AW12" s="1">
-        <v>-119.476000</v>
+        <v>-119.476</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>9667.107809</v>
+        <v>9667.1078089999992</v>
       </c>
       <c r="AZ12" s="1">
         <v>2.685308</v>
       </c>
       <c r="BA12" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-136.761000</v>
+        <v>-136.761</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>9678.086754</v>
+        <v>9678.0867539999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.688357</v>
+        <v>2.6883569999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1292.030000</v>
+        <v>1292.03</v>
       </c>
       <c r="BG12" s="1">
-        <v>-217.831000</v>
+        <v>-217.83099999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>9689.327059</v>
+        <v>9689.3270589999993</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.691480</v>
+        <v>2.6914799999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1360.090000</v>
+        <v>1360.09</v>
       </c>
       <c r="BL12" s="1">
-        <v>-353.153000</v>
+        <v>-353.15300000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>9700.289670</v>
+        <v>9700.2896700000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.694525</v>
+        <v>2.6945250000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-574.881000</v>
+        <v>-574.88099999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>9711.124246</v>
+        <v>9711.1242459999994</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.697535</v>
+        <v>2.6975349999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1600.030000</v>
+        <v>1600.03</v>
       </c>
       <c r="BV12" s="1">
-        <v>-826.767000</v>
+        <v>-826.76700000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>9721.648856</v>
+        <v>9721.6488559999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.700458</v>
+        <v>2.7004579999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1750.110000</v>
+        <v>1750.11</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1101.540000</v>
+        <v>-1101.54</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>9733.704623</v>
+        <v>9733.7046229999996</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.703807</v>
+        <v>2.7038069999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>2166.250000</v>
+        <v>2166.25</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1770.570000</v>
+        <v>-1770.57</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>9560.986237</v>
+        <v>9560.9862369999992</v>
       </c>
       <c r="B13" s="1">
-        <v>2.655830</v>
+        <v>2.6558299999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1143.500000</v>
+        <v>1143.5</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.203000</v>
+        <v>-257.20299999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>9571.080815</v>
+        <v>9571.0808149999993</v>
       </c>
       <c r="G13" s="1">
-        <v>2.658634</v>
+        <v>2.6586340000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1164.950000</v>
+        <v>1164.95</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.836000</v>
+        <v>-215.83600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>9581.476465</v>
+        <v>9581.4764649999997</v>
       </c>
       <c r="L13" s="1">
         <v>2.661521</v>
       </c>
       <c r="M13" s="1">
-        <v>1192.930000</v>
+        <v>1192.93</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.851000</v>
+        <v>-149.851</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>9592.022908</v>
+        <v>9592.0229080000008</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.664451</v>
+        <v>2.6644510000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1200.840000</v>
+        <v>1200.8399999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.730000</v>
+        <v>-127.73</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>9602.534650</v>
+        <v>9602.5346499999996</v>
       </c>
       <c r="V13" s="1">
-        <v>2.667371</v>
+        <v>2.6673710000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1207.900000</v>
+        <v>1207.9000000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.874000</v>
+        <v>-106.874</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>9613.030983</v>
+        <v>9613.0309830000006</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.670286</v>
+        <v>2.6702859999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.818400</v>
+        <v>-89.818399999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>9623.550138</v>
+        <v>9623.5501380000005</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.673208</v>
+        <v>2.6732079999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1219.690000</v>
+        <v>1219.69</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.264100</v>
+        <v>-85.264099999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>9634.659546</v>
+        <v>9634.6595460000008</v>
       </c>
       <c r="AK13" s="1">
         <v>2.676294</v>
       </c>
       <c r="AL13" s="1">
-        <v>1226.650000</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.566000</v>
+        <v>-88.566000000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>9645.375167</v>
+        <v>9645.3751670000001</v>
       </c>
       <c r="AP13" s="1">
         <v>2.679271</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.371000</v>
+        <v>-100.371</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>9656.410558</v>
+        <v>9656.4105579999996</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.682336</v>
+        <v>2.6823359999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1244.280000</v>
+        <v>1244.28</v>
       </c>
       <c r="AW13" s="1">
-        <v>-119.486000</v>
+        <v>-119.486</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>9667.466415</v>
+        <v>9667.4664150000008</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.685407</v>
+        <v>2.6854070000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-136.777000</v>
+        <v>-136.77699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>9678.445826</v>
+        <v>9678.4458259999992</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.688457</v>
+        <v>2.6884570000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1292.030000</v>
+        <v>1292.03</v>
       </c>
       <c r="BG13" s="1">
-        <v>-217.801000</v>
+        <v>-217.80099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>9690.038818</v>
+        <v>9690.0388180000009</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.691677</v>
+        <v>2.6916769999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1360.110000</v>
+        <v>1360.11</v>
       </c>
       <c r="BL13" s="1">
-        <v>-353.163000</v>
+        <v>-353.16300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>9700.409668</v>
+        <v>9700.4096680000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.694558</v>
+        <v>2.6945579999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1471.540000</v>
+        <v>1471.54</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-574.840000</v>
+        <v>-574.84</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>9711.239815</v>
+        <v>9711.2398150000008</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.697567</v>
+        <v>2.6975669999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1600.140000</v>
+        <v>1600.14</v>
       </c>
       <c r="BV13" s="1">
-        <v>-826.485000</v>
+        <v>-826.48500000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>9722.074425</v>
+        <v>9722.0744250000007</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.700576</v>
+        <v>2.7005759999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1750.050000</v>
+        <v>1750.05</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1101.520000</v>
+        <v>-1101.52</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>9734.229913</v>
+        <v>9734.2299129999992</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.703953</v>
+        <v>2.7039529999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>2166.350000</v>
+        <v>2166.35</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1772.080000</v>
+        <v>-1772.08</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>9561.272925</v>
+        <v>9561.2729249999993</v>
       </c>
       <c r="B14" s="1">
-        <v>2.655909</v>
+        <v>2.6559089999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1143.450000</v>
+        <v>1143.45</v>
       </c>
       <c r="D14" s="1">
-        <v>-257.161000</v>
+        <v>-257.161</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>9571.367503</v>
+        <v>9571.3675029999995</v>
       </c>
       <c r="G14" s="1">
-        <v>2.658713</v>
+        <v>2.6587130000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1164.930000</v>
+        <v>1164.93</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.152000</v>
+        <v>-216.15199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>9581.825185</v>
+        <v>9581.8251849999997</v>
       </c>
       <c r="L14" s="1">
-        <v>2.661618</v>
+        <v>2.6616179999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.130000</v>
+        <v>1193.1300000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.860000</v>
+        <v>-149.86000000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>9592.369107</v>
+        <v>9592.3691070000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.664547</v>
+        <v>2.6645470000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1200.770000</v>
+        <v>1200.77</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.784000</v>
+        <v>-127.78400000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>9602.875895</v>
+        <v>9602.8758949999992</v>
       </c>
       <c r="V14" s="1">
-        <v>2.667466</v>
+        <v>2.6674660000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1207.950000</v>
+        <v>1207.95</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.902000</v>
+        <v>-106.902</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>9613.726871</v>
+        <v>9613.7268710000008</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.670480</v>
+        <v>2.67048</v>
       </c>
       <c r="AB14" s="1">
-        <v>1215.020000</v>
+        <v>1215.02</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.738100</v>
+        <v>-89.738100000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>9624.237593</v>
+        <v>9624.2375929999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.673399</v>
+        <v>2.6733989999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.305800</v>
+        <v>-85.305800000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>9635.007691</v>
+        <v>9635.0076910000007</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.676391</v>
+        <v>2.6763910000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1226.650000</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.560700</v>
+        <v>-88.560699999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>9645.733181</v>
+        <v>9645.7331809999996</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.679370</v>
+        <v>2.67937</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1234.420000</v>
+        <v>1234.42</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.360000</v>
+        <v>-100.36</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>9656.773637</v>
+        <v>9656.7736370000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.682437</v>
+        <v>2.6824370000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AW14" s="1">
-        <v>-119.489000</v>
+        <v>-119.489</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>9668.130559</v>
+        <v>9668.1305589999993</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.685592</v>
+        <v>2.6855920000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-136.776000</v>
+        <v>-136.77600000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>9679.109970</v>
+        <v>9679.1099699999995</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.688642</v>
+        <v>2.6886420000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1292.010000</v>
+        <v>1292.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-217.799000</v>
+        <v>-217.79900000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>9690.476330</v>
+        <v>9690.4763299999995</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.691799</v>
+        <v>2.6917990000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="BL14" s="1">
-        <v>-353.156000</v>
+        <v>-353.15600000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>9700.806468</v>
+        <v>9700.8064680000007</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.694668</v>
+        <v>2.6946680000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-574.942000</v>
+        <v>-574.94200000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>9711.678279</v>
+        <v>9711.6782789999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.697688</v>
+        <v>2.6976879999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1600.270000</v>
+        <v>1600.27</v>
       </c>
       <c r="BV14" s="1">
-        <v>-826.403000</v>
+        <v>-826.40300000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>9722.490071</v>
+        <v>9722.4900710000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.700692</v>
+        <v>2.7006920000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1750.110000</v>
+        <v>1750.11</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1101.810000</v>
+        <v>-1101.81</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>9734.750679</v>
+        <v>9734.7506790000007</v>
       </c>
       <c r="CD14" s="1">
         <v>2.704097</v>
       </c>
       <c r="CE14" s="1">
-        <v>2165.270000</v>
+        <v>2165.27</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1770.110000</v>
+        <v>-1770.11</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>9561.614668</v>
+        <v>9561.6146680000002</v>
       </c>
       <c r="B15" s="1">
-        <v>2.656004</v>
+        <v>2.6560039999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1143.200000</v>
+        <v>1143.2</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.946000</v>
+        <v>-256.94600000000003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>9571.715198</v>
+        <v>9571.7151979999999</v>
       </c>
       <c r="G15" s="1">
-        <v>2.658810</v>
+        <v>2.6588099999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.240000</v>
+        <v>1165.24</v>
       </c>
       <c r="I15" s="1">
-        <v>-215.432000</v>
+        <v>-215.43199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>9582.172849</v>
+        <v>9582.1728490000005</v>
       </c>
       <c r="L15" s="1">
-        <v>2.661715</v>
+        <v>2.6617150000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.120000</v>
+        <v>1193.1199999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.880000</v>
+        <v>-149.88</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>9593.068467</v>
+        <v>9593.0684669999991</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.664741</v>
+        <v>2.6647409999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1200.690000</v>
+        <v>1200.69</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.797000</v>
+        <v>-127.797</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>9603.561829</v>
+        <v>9603.5618290000002</v>
       </c>
       <c r="V15" s="1">
         <v>2.667656</v>
       </c>
       <c r="W15" s="1">
-        <v>1207.860000</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.878000</v>
+        <v>-106.878</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>9614.078998</v>
+        <v>9614.0789980000009</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.670577</v>
+        <v>2.6705770000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.779500</v>
+        <v>-89.779499999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>9624.581325</v>
+        <v>9624.5813249999992</v>
       </c>
       <c r="AF15" s="1">
         <v>2.673495</v>
       </c>
       <c r="AG15" s="1">
-        <v>1219.680000</v>
+        <v>1219.68</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.244500</v>
+        <v>-85.244500000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>9635.359354</v>
+        <v>9635.3593540000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.676489</v>
+        <v>2.6764890000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1226.650000</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.573100</v>
+        <v>-88.573099999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>9646.396827</v>
+        <v>9646.3968270000005</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.679555</v>
+        <v>2.6795550000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.367000</v>
+        <v>-100.367</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>9657.449214</v>
+        <v>9657.4492140000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.682625</v>
+        <v>2.6826249999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="AW15" s="1">
-        <v>-119.463000</v>
+        <v>-119.46299999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>9668.543694</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.685707</v>
+        <v>2.6857069999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1252.610000</v>
+        <v>1252.6099999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-136.762000</v>
+        <v>-136.762</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>9679.560336</v>
+        <v>9679.5603360000005</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.688767</v>
+        <v>2.6887669999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1292.040000</v>
+        <v>1292.04</v>
       </c>
       <c r="BG15" s="1">
-        <v>-217.812000</v>
+        <v>-217.81200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>9690.878572</v>
+        <v>9690.8785719999996</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.691911</v>
+        <v>2.6919110000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1360.110000</v>
+        <v>1360.11</v>
       </c>
       <c r="BL15" s="1">
-        <v>-353.187000</v>
+        <v>-353.18700000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>9701.227076</v>
+        <v>9701.2270759999992</v>
       </c>
       <c r="BO15" s="1">
         <v>2.694785</v>
       </c>
       <c r="BP15" s="1">
-        <v>1471.570000</v>
+        <v>1471.57</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-574.946000</v>
+        <v>-574.94600000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>9712.107317</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.697808</v>
+        <v>2.6978080000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1600.340000</v>
+        <v>1600.34</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.156000</v>
+        <v>-826.15599999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>9722.944902</v>
+        <v>9722.9449019999993</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.700818</v>
+        <v>2.7008179999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1750.170000</v>
+        <v>1750.17</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1101.530000</v>
+        <v>-1101.53</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>9735.269990</v>
+        <v>9735.2699900000007</v>
       </c>
       <c r="CD15" s="1">
-        <v>2.704242</v>
+        <v>2.7042419999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>2165.750000</v>
+        <v>2165.75</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1770.220000</v>
+        <v>-1770.22</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>9561.954925</v>
       </c>
       <c r="B16" s="1">
-        <v>2.656099</v>
+        <v>2.6560990000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1142.960000</v>
+        <v>1142.96</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.204000</v>
+        <v>-257.20400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>9572.056446</v>
+        <v>9572.0564460000005</v>
       </c>
       <c r="G16" s="1">
-        <v>2.658905</v>
+        <v>2.6589049999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1164.810000</v>
+        <v>1164.81</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.288000</v>
+        <v>-215.28800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>9582.864128</v>
+        <v>9582.8641279999993</v>
       </c>
       <c r="L16" s="1">
-        <v>2.661907</v>
+        <v>2.6619069999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.170000</v>
+        <v>1193.17</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.582000</v>
+        <v>-149.58199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>9593.417154</v>
+        <v>9593.4171540000007</v>
       </c>
       <c r="Q16" s="1">
         <v>2.664838</v>
       </c>
       <c r="R16" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.726000</v>
+        <v>-127.726</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>9603.906052</v>
+        <v>9603.9060520000003</v>
       </c>
       <c r="V16" s="1">
-        <v>2.667752</v>
+        <v>2.6677520000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1207.840000</v>
+        <v>1207.8399999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.843000</v>
+        <v>-106.843</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>9614.425704</v>
+        <v>9614.4257039999993</v>
       </c>
       <c r="AA16" s="1">
         <v>2.670674</v>
       </c>
       <c r="AB16" s="1">
-        <v>1215.040000</v>
+        <v>1215.04</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.855600</v>
+        <v>-89.855599999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>9624.924520</v>
+        <v>9624.9245200000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.673590</v>
+        <v>2.6735899999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1219.680000</v>
+        <v>1219.68</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.293400</v>
+        <v>-85.293400000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>9636.005146</v>
+        <v>9636.0051459999995</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.676668</v>
+        <v>2.6766679999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1226.630000</v>
+        <v>1226.6300000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.556900</v>
+        <v>-88.556899999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>9646.841805</v>
@@ -4199,375 +4615,375 @@
         <v>2.679678</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1234.440000</v>
+        <v>1234.44</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.384000</v>
+        <v>-100.384</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>9657.905500</v>
+        <v>9657.9055000000008</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.682752</v>
+        <v>2.6827519999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AW16" s="1">
-        <v>-119.501000</v>
+        <v>-119.501</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>9668.923025</v>
+        <v>9668.9230250000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.685812</v>
+        <v>2.6858119999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1252.610000</v>
+        <v>1252.6099999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-136.770000</v>
+        <v>-136.77000000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>9679.922946</v>
+        <v>9679.9229460000006</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.688867</v>
+        <v>2.6888670000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1292.070000</v>
+        <v>1292.07</v>
       </c>
       <c r="BG16" s="1">
-        <v>-217.802000</v>
+        <v>-217.80199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>9691.254514</v>
+        <v>9691.2545140000002</v>
       </c>
       <c r="BJ16" s="1">
         <v>2.692015</v>
       </c>
       <c r="BK16" s="1">
-        <v>1360.110000</v>
+        <v>1360.11</v>
       </c>
       <c r="BL16" s="1">
-        <v>-353.157000</v>
+        <v>-353.15699999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>9701.659586</v>
+        <v>9701.6595859999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.694905</v>
+        <v>2.6949049999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1471.560000</v>
+        <v>1471.56</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-574.851000</v>
+        <v>-574.851</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>9712.516516</v>
+        <v>9712.5165159999997</v>
       </c>
       <c r="BT16" s="1">
         <v>2.697921</v>
       </c>
       <c r="BU16" s="1">
-        <v>1600.600000</v>
+        <v>1600.6</v>
       </c>
       <c r="BV16" s="1">
-        <v>-826.124000</v>
+        <v>-826.12400000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>9723.392790</v>
+        <v>9723.3927899999999</v>
       </c>
       <c r="BY16" s="1">
         <v>2.700942</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1750.030000</v>
+        <v>1750.03</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1101.490000</v>
+        <v>-1101.49</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>9735.820054</v>
+        <v>9735.8200539999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.704394</v>
+        <v>2.7043940000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>2166.530000</v>
+        <v>2166.5300000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1772.390000</v>
+        <v>-1772.39</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>9562.639439</v>
+        <v>9562.6394390000005</v>
       </c>
       <c r="B17" s="1">
-        <v>2.656289</v>
+        <v>2.6562890000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1143.440000</v>
+        <v>1143.44</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.236000</v>
+        <v>-257.23599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>9572.748367</v>
+        <v>9572.7483670000001</v>
       </c>
       <c r="G17" s="1">
         <v>2.659097</v>
       </c>
       <c r="H17" s="1">
-        <v>1165.070000</v>
+        <v>1165.07</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.225000</v>
+        <v>-215.22499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>9583.210480</v>
+        <v>9583.2104799999997</v>
       </c>
       <c r="L17" s="1">
-        <v>2.662003</v>
+        <v>2.6620029999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1192.660000</v>
+        <v>1192.6600000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.737000</v>
+        <v>-149.73699999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>9593.766369</v>
+        <v>9593.7663690000009</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.664935</v>
+        <v>2.6649349999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1200.720000</v>
+        <v>1200.72</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.720000</v>
+        <v>-127.72</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>9604.252261</v>
+        <v>9604.2522609999996</v>
       </c>
       <c r="V17" s="1">
-        <v>2.667848</v>
+        <v>2.6678480000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1207.850000</v>
+        <v>1207.8499999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.851000</v>
+        <v>-106.851</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>9615.081414</v>
+        <v>9615.0814140000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.670856</v>
+        <v>2.6708560000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.679000</v>
+        <v>-89.679000000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>9625.587671</v>
+        <v>9625.5876709999993</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.673774</v>
+        <v>2.6737739999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1219.700000</v>
+        <v>1219.7</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.270200</v>
+        <v>-85.270200000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>9636.403465</v>
+        <v>9636.4034649999994</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.676779</v>
+        <v>2.6767789999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1226.660000</v>
+        <v>1226.6600000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.580500</v>
+        <v>-88.580500000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>9647.202331</v>
+        <v>9647.2023310000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.679778</v>
+        <v>2.6797780000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1234.490000</v>
+        <v>1234.49</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.370000</v>
+        <v>-100.37</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>9658.268076</v>
+        <v>9658.2680760000003</v>
       </c>
       <c r="AU17" s="1">
         <v>2.682852</v>
       </c>
       <c r="AV17" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AW17" s="1">
-        <v>-119.505000</v>
+        <v>-119.505</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>9669.283229</v>
+        <v>9669.2832290000006</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.685912</v>
+        <v>2.6859120000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-136.749000</v>
+        <v>-136.749</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>9680.283020</v>
+        <v>9680.2830200000008</v>
       </c>
       <c r="BE17" s="1">
         <v>2.688968</v>
       </c>
       <c r="BF17" s="1">
-        <v>1292.030000</v>
+        <v>1292.03</v>
       </c>
       <c r="BG17" s="1">
-        <v>-217.822000</v>
+        <v>-217.822</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>9691.673664</v>
+        <v>9691.6736639999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>2.692132</v>
       </c>
       <c r="BK17" s="1">
-        <v>1360.110000</v>
+        <v>1360.11</v>
       </c>
       <c r="BL17" s="1">
-        <v>-353.168000</v>
+        <v>-353.16800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>9702.047956</v>
+        <v>9702.0479560000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.695013</v>
+        <v>2.6950129999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1471.510000</v>
+        <v>1471.51</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-574.917000</v>
+        <v>-574.91700000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>9712.946052</v>
+        <v>9712.9460519999993</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.698041</v>
+        <v>2.6980409999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1600.820000</v>
+        <v>1600.82</v>
       </c>
       <c r="BV17" s="1">
-        <v>-826.242000</v>
+        <v>-826.24199999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>9723.817369</v>
+        <v>9723.8173690000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.701060</v>
+        <v>2.70106</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1750.010000</v>
+        <v>1750.01</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1101.420000</v>
+        <v>-1101.42</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>9736.350805</v>
@@ -4576,180 +4992,180 @@
         <v>2.704542</v>
       </c>
       <c r="CE17" s="1">
-        <v>2165.670000</v>
+        <v>2165.67</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1770.210000</v>
+        <v>-1770.21</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>9562.983626</v>
+        <v>9562.9836259999993</v>
       </c>
       <c r="B18" s="1">
-        <v>2.656384</v>
+        <v>2.6563840000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1143.360000</v>
+        <v>1143.3599999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-257.111000</v>
+        <v>-257.11099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>9573.091598</v>
+        <v>9573.0915980000009</v>
       </c>
       <c r="G18" s="1">
         <v>2.659192</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.620000</v>
+        <v>1165.6199999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.175000</v>
+        <v>-216.17500000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>9583.553216</v>
+        <v>9583.5532160000002</v>
       </c>
       <c r="L18" s="1">
-        <v>2.662098</v>
+        <v>2.6620979999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1192.620000</v>
+        <v>1192.6199999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.154000</v>
+        <v>-150.154</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>9594.406178</v>
+        <v>9594.4061779999993</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.665113</v>
+        <v>2.6651129999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1200.800000</v>
+        <v>1200.8</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.686000</v>
+        <v>-127.68600000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>9604.898548</v>
+        <v>9604.8985479999992</v>
       </c>
       <c r="V18" s="1">
-        <v>2.668027</v>
+        <v>2.6680269999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1207.940000</v>
+        <v>1207.94</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.866000</v>
+        <v>-106.866</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>9615.473749</v>
+        <v>9615.4737490000007</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.670965</v>
+        <v>2.6709649999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1215.110000</v>
+        <v>1215.1099999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.937800</v>
+        <v>-89.937799999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>9625.955208</v>
+        <v>9625.9552079999994</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.673876</v>
+        <v>2.6738759999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1219.650000</v>
+        <v>1219.6500000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.258500</v>
+        <v>-85.258499999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>9636.751128</v>
+        <v>9636.7511279999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.676875</v>
+        <v>2.6768749999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1226.650000</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.561800</v>
+        <v>-88.561800000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>9647.563420</v>
+        <v>9647.5634200000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.679879</v>
+        <v>2.6798790000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1234.440000</v>
+        <v>1234.44</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.365000</v>
+        <v>-100.36499999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>9658.633627</v>
+        <v>9658.6336269999993</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.682954</v>
+        <v>2.6829540000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AW18" s="1">
-        <v>-119.485000</v>
+        <v>-119.485</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>9669.706362</v>
+        <v>9669.7063620000008</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.686030</v>
+        <v>2.6860300000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-136.771000</v>
+        <v>-136.77099999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>9681.004191</v>
@@ -4758,2146 +5174,2147 @@
         <v>2.689168</v>
       </c>
       <c r="BF18" s="1">
-        <v>1292.040000</v>
+        <v>1292.04</v>
       </c>
       <c r="BG18" s="1">
-        <v>-217.799000</v>
+        <v>-217.79900000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>9692.031248</v>
+        <v>9692.0312479999993</v>
       </c>
       <c r="BJ18" s="1">
         <v>2.692231</v>
       </c>
       <c r="BK18" s="1">
-        <v>1360.110000</v>
+        <v>1360.11</v>
       </c>
       <c r="BL18" s="1">
-        <v>-353.129000</v>
+        <v>-353.12900000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>9702.444755</v>
+        <v>9702.4447550000004</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.695124</v>
+        <v>2.6951239999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-574.929000</v>
+        <v>-574.92899999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>9713.374099</v>
+        <v>9713.3740990000006</v>
       </c>
       <c r="BT18" s="1">
         <v>2.698159</v>
       </c>
       <c r="BU18" s="1">
-        <v>1600.910000</v>
+        <v>1600.91</v>
       </c>
       <c r="BV18" s="1">
-        <v>-826.435000</v>
+        <v>-826.43499999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>9724.236980</v>
+        <v>9724.2369799999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.701177</v>
+        <v>2.7011769999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1750.040000</v>
+        <v>1750.04</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1101.580000</v>
+        <v>-1101.58</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>9736.866995</v>
+        <v>9736.8669950000003</v>
       </c>
       <c r="CD18" s="1">
         <v>2.704685</v>
       </c>
       <c r="CE18" s="1">
-        <v>2166.070000</v>
+        <v>2166.0700000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1770.880000</v>
+        <v>-1770.88</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>9563.321899</v>
+        <v>9563.3218990000005</v>
       </c>
       <c r="B19" s="1">
-        <v>2.656478</v>
+        <v>2.6564779999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1143.470000</v>
+        <v>1143.47</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.339000</v>
+        <v>-257.339</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>9573.435852</v>
+        <v>9573.4358520000005</v>
       </c>
       <c r="G19" s="1">
-        <v>2.659288</v>
+        <v>2.6592880000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1165.040000</v>
+        <v>1165.04</v>
       </c>
       <c r="I19" s="1">
-        <v>-216.280000</v>
+        <v>-216.28</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>9584.200031</v>
+        <v>9584.2000310000003</v>
       </c>
       <c r="L19" s="1">
-        <v>2.662278</v>
+        <v>2.6622780000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.000000</v>
+        <v>1193</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.798000</v>
+        <v>-149.798</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>9594.810912</v>
+        <v>9594.8109120000008</v>
       </c>
       <c r="Q19" s="1">
         <v>2.665225</v>
       </c>
       <c r="R19" s="1">
-        <v>1200.810000</v>
+        <v>1200.81</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.745000</v>
+        <v>-127.745</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>9605.288404</v>
+        <v>9605.2884040000008</v>
       </c>
       <c r="V19" s="1">
-        <v>2.668136</v>
+        <v>2.6681360000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1207.870000</v>
+        <v>1207.8699999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.850000</v>
+        <v>-106.85</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>9615.821449</v>
+        <v>9615.8214489999991</v>
       </c>
       <c r="AA19" s="1">
         <v>2.671062</v>
       </c>
       <c r="AB19" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.760100</v>
+        <v>-89.760099999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>9626.299463</v>
+        <v>9626.2994629999994</v>
       </c>
       <c r="AF19" s="1">
         <v>2.673972</v>
       </c>
       <c r="AG19" s="1">
-        <v>1219.680000</v>
+        <v>1219.68</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.250500</v>
+        <v>-85.250500000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>9637.102298</v>
+        <v>9637.1022979999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.676973</v>
+        <v>2.6769729999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1226.650000</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.586900</v>
+        <v>-88.5869</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>9647.987001</v>
+        <v>9647.9870009999995</v>
       </c>
       <c r="AP19" s="1">
         <v>2.679996</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1234.470000</v>
+        <v>1234.47</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.359000</v>
+        <v>-100.35899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>9659.039851</v>
+        <v>9659.0398509999995</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.683067</v>
+        <v>2.6830669999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1244.300000</v>
+        <v>1244.3</v>
       </c>
       <c r="AW19" s="1">
-        <v>-119.482000</v>
+        <v>-119.482</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>9669.999453</v>
+        <v>9669.9994530000004</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.686111</v>
+        <v>2.6861109999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-136.782000</v>
+        <v>-136.78200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>9681.391567</v>
+        <v>9681.3915670000006</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.689275</v>
+        <v>2.6892749999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1292.040000</v>
+        <v>1292.04</v>
       </c>
       <c r="BG19" s="1">
-        <v>-217.803000</v>
+        <v>-217.803</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>9692.407215</v>
+        <v>9692.4072149999993</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.692335</v>
+        <v>2.6923349999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1360.080000</v>
+        <v>1360.08</v>
       </c>
       <c r="BL19" s="1">
-        <v>-353.200000</v>
+        <v>-353.2</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>9702.866849</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.695241</v>
+        <v>2.6952410000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1471.500000</v>
+        <v>1471.5</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-574.895000</v>
+        <v>-574.89499999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>9713.788259</v>
+        <v>9713.7882590000008</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.698275</v>
+        <v>2.6982750000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1600.990000</v>
+        <v>1600.99</v>
       </c>
       <c r="BV19" s="1">
-        <v>-826.573000</v>
+        <v>-826.57299999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>9724.664036</v>
+        <v>9724.6640360000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.701296</v>
+        <v>2.7012960000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1750.110000</v>
+        <v>1750.11</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1101.660000</v>
+        <v>-1101.6600000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>9737.419683</v>
+        <v>9737.4196830000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.704839</v>
+        <v>2.7048390000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>2166.060000</v>
+        <v>2166.06</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1772.560000</v>
+        <v>-1772.56</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>9563.973678</v>
+        <v>9563.9736780000003</v>
       </c>
       <c r="B20" s="1">
-        <v>2.656659</v>
+        <v>2.6566589999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.820000</v>
+        <v>1143.82</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.127000</v>
+        <v>-257.12700000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>9574.112395</v>
+        <v>9574.1123950000001</v>
       </c>
       <c r="G20" s="1">
-        <v>2.659476</v>
+        <v>2.6594760000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1165.150000</v>
+        <v>1165.1500000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.621000</v>
+        <v>-215.62100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>9584.593327</v>
+        <v>9584.5933270000005</v>
       </c>
       <c r="L20" s="1">
-        <v>2.662387</v>
+        <v>2.6623869999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.300000</v>
+        <v>1193.3</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.805000</v>
+        <v>-149.80500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>9595.160592</v>
+        <v>9595.1605920000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.665322</v>
+        <v>2.6653220000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.763000</v>
+        <v>-127.76300000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>9605.632626</v>
+        <v>9605.6326260000005</v>
       </c>
       <c r="V20" s="1">
         <v>2.668231</v>
       </c>
       <c r="W20" s="1">
-        <v>1207.900000</v>
+        <v>1207.9000000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.907000</v>
+        <v>-106.907</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>9616.169171</v>
+        <v>9616.1691709999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.671158</v>
+        <v>2.6711580000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.708800</v>
+        <v>-89.708799999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>9626.641703</v>
+        <v>9626.6417029999993</v>
       </c>
       <c r="AF20" s="1">
         <v>2.674067</v>
       </c>
       <c r="AG20" s="1">
-        <v>1219.700000</v>
+        <v>1219.7</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.273800</v>
+        <v>-85.273799999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>9637.513977</v>
+        <v>9637.5139770000005</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.677087</v>
+        <v>2.6770870000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1226.620000</v>
+        <v>1226.6199999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.571900</v>
+        <v>-88.571899999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>9648.284601</v>
+        <v>9648.2846009999994</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.680079</v>
+        <v>2.6800790000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.377000</v>
+        <v>-100.377</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>9659.363243</v>
+        <v>9659.3632429999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.683156</v>
+        <v>2.6831559999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AW20" s="1">
-        <v>-119.444000</v>
+        <v>-119.444</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>9670.360045</v>
+        <v>9670.3600449999994</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.686211</v>
+        <v>2.6862110000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1252.610000</v>
+        <v>1252.6099999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-136.785000</v>
+        <v>-136.785</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>9681.751661</v>
+        <v>9681.7516610000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.689375</v>
+        <v>2.6893750000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1292.030000</v>
+        <v>1292.03</v>
       </c>
       <c r="BG20" s="1">
-        <v>-217.834000</v>
+        <v>-217.834</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>9692.783182</v>
+        <v>9692.7831819999992</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.692440</v>
+        <v>2.6924399999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1360.100000</v>
+        <v>1360.1</v>
       </c>
       <c r="BL20" s="1">
-        <v>-353.148000</v>
+        <v>-353.14800000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>9703.682768</v>
+        <v>9703.6827680000006</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.695467</v>
+        <v>2.6954669999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1471.510000</v>
+        <v>1471.51</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-574.949000</v>
+        <v>-574.94899999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>9714.219284</v>
+        <v>9714.2192840000007</v>
       </c>
       <c r="BT20" s="1">
         <v>2.698394</v>
       </c>
       <c r="BU20" s="1">
-        <v>1601.020000</v>
+        <v>1601.02</v>
       </c>
       <c r="BV20" s="1">
-        <v>-826.804000</v>
+        <v>-826.80399999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>9725.078196</v>
+        <v>9725.0781960000004</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.701411</v>
+        <v>2.7014109999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1750.020000</v>
+        <v>1750.02</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1101.560000</v>
+        <v>-1101.56</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>9737.950868</v>
+        <v>9737.9508679999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.704986</v>
+        <v>2.7049859999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2165.840000</v>
+        <v>2165.84</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1770.300000</v>
+        <v>-1770.3</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>9564.346136</v>
+        <v>9564.3461360000001</v>
       </c>
       <c r="B21" s="1">
-        <v>2.656763</v>
+        <v>2.6567630000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1143.410000</v>
+        <v>1143.4100000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.276000</v>
+        <v>-257.27600000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>9574.470011</v>
+        <v>9574.4700109999994</v>
       </c>
       <c r="G21" s="1">
-        <v>2.659575</v>
+        <v>2.6595749999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1165.030000</v>
+        <v>1165.03</v>
       </c>
       <c r="I21" s="1">
-        <v>-215.651000</v>
+        <v>-215.65100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>9584.937581</v>
+        <v>9584.9375810000001</v>
       </c>
       <c r="L21" s="1">
-        <v>2.662483</v>
+        <v>2.6624829999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1193.170000</v>
+        <v>1193.17</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.787000</v>
+        <v>-149.78700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>9595.508783</v>
+        <v>9595.5087829999993</v>
       </c>
       <c r="Q21" s="1">
         <v>2.665419</v>
       </c>
       <c r="R21" s="1">
-        <v>1200.700000</v>
+        <v>1200.7</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.743000</v>
+        <v>-127.74299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>9605.976886</v>
+        <v>9605.9768860000004</v>
       </c>
       <c r="V21" s="1">
-        <v>2.668327</v>
+        <v>2.6683270000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1207.870000</v>
+        <v>1207.8699999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.859000</v>
+        <v>-106.85899999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>9616.595204</v>
+        <v>9616.5952039999993</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.671276</v>
+        <v>2.6712760000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.850500</v>
+        <v>-89.850499999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>9627.296403</v>
+        <v>9627.2964030000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.674249</v>
+        <v>2.6742490000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1219.710000</v>
+        <v>1219.71</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.239700</v>
+        <v>-85.239699999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>9637.809314</v>
+        <v>9637.8093140000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.677169</v>
+        <v>2.6771690000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1226.650000</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.575900</v>
+        <v>-88.575900000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>9648.643705</v>
+        <v>9648.6437050000004</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.680179</v>
+        <v>2.6801789999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.361000</v>
+        <v>-100.361</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>9659.727834</v>
+        <v>9659.7278339999993</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.683258</v>
+        <v>2.6832579999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="AW21" s="1">
-        <v>-119.484000</v>
+        <v>-119.48399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>9670.716700</v>
+        <v>9670.7167000000009</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.686310</v>
+        <v>2.6863100000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1252.610000</v>
+        <v>1252.6099999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-136.778000</v>
+        <v>-136.77799999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>9682.477321</v>
+        <v>9682.4773210000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.689577</v>
+        <v>2.6895769999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG21" s="1">
-        <v>-217.804000</v>
+        <v>-217.804</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>9693.537102</v>
+        <v>9693.5371020000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.692649</v>
+        <v>2.6926489999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1360.030000</v>
+        <v>1360.03</v>
       </c>
       <c r="BL21" s="1">
-        <v>-353.146000</v>
+        <v>-353.14600000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>9704.098913</v>
+        <v>9704.0989129999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.695583</v>
+        <v>2.6955830000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1471.580000</v>
+        <v>1471.58</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-574.928000</v>
+        <v>-574.928</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>9714.644353</v>
+        <v>9714.6443529999997</v>
       </c>
       <c r="BT21" s="1">
         <v>2.698512</v>
       </c>
       <c r="BU21" s="1">
-        <v>1600.860000</v>
+        <v>1600.86</v>
       </c>
       <c r="BV21" s="1">
-        <v>-826.960000</v>
+        <v>-826.96</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>9725.534019</v>
+        <v>9725.5340190000006</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.701537</v>
+        <v>2.7015370000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1750.140000</v>
+        <v>1750.14</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1101.650000</v>
+        <v>-1101.6500000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>9738.773245</v>
+        <v>9738.7732450000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.705215</v>
+        <v>2.7052149999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2164.030000</v>
+        <v>2164.0300000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1770.550000</v>
+        <v>-1770.55</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>9564.690856</v>
+        <v>9564.6908559999993</v>
       </c>
       <c r="B22" s="1">
-        <v>2.656859</v>
+        <v>2.6568589999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1143.380000</v>
+        <v>1143.3800000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.487000</v>
+        <v>-257.48700000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>9574.815723</v>
+        <v>9574.8157229999997</v>
       </c>
       <c r="G22" s="1">
-        <v>2.659671</v>
+        <v>2.6596709999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.500000</v>
+        <v>1165.5</v>
       </c>
       <c r="I22" s="1">
-        <v>-215.849000</v>
+        <v>-215.84899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>9585.284253</v>
+        <v>9585.2842529999998</v>
       </c>
       <c r="L22" s="1">
         <v>2.662579</v>
       </c>
       <c r="M22" s="1">
-        <v>1192.800000</v>
+        <v>1192.8</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.890000</v>
+        <v>-149.88999999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>9595.922942</v>
+        <v>9595.9229419999992</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.665534</v>
+        <v>2.6655340000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1200.720000</v>
+        <v>1200.72</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.738000</v>
+        <v>-127.738</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>9606.383568</v>
+        <v>9606.3835679999993</v>
       </c>
       <c r="V22" s="1">
-        <v>2.668440</v>
+        <v>2.6684399999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1207.900000</v>
+        <v>1207.9000000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.870000</v>
+        <v>-106.87</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>9616.875938</v>
+        <v>9616.8759379999992</v>
       </c>
       <c r="AA22" s="1">
         <v>2.671354</v>
       </c>
       <c r="AB22" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.706000</v>
+        <v>-89.706000000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>9627.672853</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.674354</v>
+        <v>2.6743540000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.229400</v>
+        <v>-85.229399999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>9638.159283</v>
+        <v>9638.1592830000009</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.677266</v>
+        <v>2.6772659999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1226.630000</v>
+        <v>1226.6300000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.602800</v>
+        <v>-88.602800000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>9649.002344</v>
+        <v>9649.0023440000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.680278</v>
+        <v>2.6802779999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.361000</v>
+        <v>-100.361</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>9660.092393</v>
+        <v>9660.0923930000008</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.683359</v>
+        <v>2.6833589999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1244.300000</v>
+        <v>1244.3</v>
       </c>
       <c r="AW22" s="1">
-        <v>-119.499000</v>
+        <v>-119.499</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>9671.440423</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.686511</v>
+        <v>2.6865109999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-136.766000</v>
+        <v>-136.76599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>9682.863705</v>
+        <v>9682.8637049999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.689684</v>
+        <v>2.6896840000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1292.030000</v>
+        <v>1292.03</v>
       </c>
       <c r="BG22" s="1">
-        <v>-217.795000</v>
+        <v>-217.79499999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>9693.908110</v>
+        <v>9693.9081100000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>2.692752</v>
       </c>
       <c r="BK22" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="BL22" s="1">
-        <v>-353.160000</v>
+        <v>-353.16</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>9704.493231</v>
+        <v>9704.4932310000004</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.695693</v>
+        <v>2.6956929999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1471.500000</v>
+        <v>1471.5</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-574.917000</v>
+        <v>-574.91700000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>9715.056033</v>
+        <v>9715.0560330000008</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.698627</v>
+        <v>2.6986270000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1600.720000</v>
+        <v>1600.72</v>
       </c>
       <c r="BV22" s="1">
-        <v>-827.080000</v>
+        <v>-827.08</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>9726.288467</v>
+        <v>9726.2884670000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.701747</v>
+        <v>2.7017470000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1750.040000</v>
+        <v>1750.04</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1101.670000</v>
+        <v>-1101.67</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>9738.986018</v>
+        <v>9738.9860179999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.705274</v>
+        <v>2.7052740000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2164.030000</v>
+        <v>2164.0300000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1772.180000</v>
+        <v>-1772.18</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>9565.035576</v>
+        <v>9565.0355760000002</v>
       </c>
       <c r="B23" s="1">
-        <v>2.656954</v>
+        <v>2.6569539999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>1143.600000</v>
+        <v>1143.5999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-257.070000</v>
+        <v>-257.07</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>9575.221419</v>
+        <v>9575.2214189999995</v>
       </c>
       <c r="G23" s="1">
-        <v>2.659784</v>
+        <v>2.6597840000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1164.940000</v>
+        <v>1164.94</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.768000</v>
+        <v>-215.768</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>9585.712796</v>
+        <v>9585.7127959999998</v>
       </c>
       <c r="L23" s="1">
-        <v>2.662698</v>
+        <v>2.6626979999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.290000</v>
+        <v>1193.29</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.928000</v>
+        <v>-149.928</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>9596.206654</v>
+        <v>9596.2066539999996</v>
       </c>
       <c r="Q23" s="1">
         <v>2.665613</v>
       </c>
       <c r="R23" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.720000</v>
+        <v>-127.72</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>9606.676705</v>
+        <v>9606.6767049999999</v>
       </c>
       <c r="V23" s="1">
-        <v>2.668521</v>
+        <v>2.6685210000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1207.910000</v>
+        <v>1207.9100000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.818000</v>
+        <v>-106.818</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>9617.223138</v>
+        <v>9617.2231379999994</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.671451</v>
+        <v>2.6714509999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.827300</v>
+        <v>-89.827299999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>9628.021567</v>
+        <v>9628.0215669999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.674450</v>
+        <v>2.6744500000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.289800</v>
+        <v>-85.2898</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>9638.506966</v>
+        <v>9638.5069660000008</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.677363</v>
+        <v>2.6773630000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1226.650000</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.567200</v>
+        <v>-88.5672</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>9649.731927</v>
+        <v>9649.7319270000007</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.680481</v>
+        <v>2.6804809999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1234.470000</v>
+        <v>1234.47</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.369000</v>
+        <v>-100.369</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>9660.829417</v>
+        <v>9660.8294170000008</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.683564</v>
+        <v>2.6835640000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="AW23" s="1">
-        <v>-119.505000</v>
+        <v>-119.505</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>9671.814810</v>
+        <v>9671.8148099999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.686615</v>
+        <v>2.6866150000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-136.770000</v>
+        <v>-136.77000000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>9683.225276</v>
+        <v>9683.2252759999992</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.689785</v>
+        <v>2.6897850000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1292.000000</v>
+        <v>1292</v>
       </c>
       <c r="BG23" s="1">
-        <v>-217.799000</v>
+        <v>-217.79900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>9694.284604</v>
+        <v>9694.2846040000004</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.692857</v>
+        <v>2.6928570000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1360.080000</v>
+        <v>1360.08</v>
       </c>
       <c r="BL23" s="1">
-        <v>-353.174000</v>
+        <v>-353.17399999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>9705.222878</v>
+        <v>9705.2228780000005</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.695895</v>
+        <v>2.6958950000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1471.580000</v>
+        <v>1471.58</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-574.903000</v>
+        <v>-574.90300000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>9715.614034</v>
+        <v>9715.6140340000002</v>
       </c>
       <c r="BT23" s="1">
         <v>2.698782</v>
       </c>
       <c r="BU23" s="1">
-        <v>1600.510000</v>
+        <v>1600.51</v>
       </c>
       <c r="BV23" s="1">
-        <v>-827.110000</v>
+        <v>-827.11</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>9726.413426</v>
+        <v>9726.4134259999992</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.701782</v>
+        <v>2.7017820000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1750.250000</v>
+        <v>1750.25</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1101.590000</v>
+        <v>-1101.5899999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>9739.504833</v>
+        <v>9739.5048330000009</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.705418</v>
+        <v>2.7054179999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2163.780000</v>
+        <v>2163.7800000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1771.930000</v>
+        <v>-1771.93</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>9565.453208</v>
+        <v>9565.4532080000008</v>
       </c>
       <c r="B24" s="1">
-        <v>2.657070</v>
+        <v>2.65707</v>
       </c>
       <c r="C24" s="1">
-        <v>1143.080000</v>
+        <v>1143.08</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.075000</v>
+        <v>-257.07499999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>9575.518025</v>
+        <v>9575.5180249999994</v>
       </c>
       <c r="G24" s="1">
-        <v>2.659866</v>
+        <v>2.6598660000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.280000</v>
+        <v>1165.28</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.499000</v>
+        <v>-215.499</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>9585.991053</v>
+        <v>9585.9910529999997</v>
       </c>
       <c r="L24" s="1">
-        <v>2.662775</v>
+        <v>2.6627749999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1192.710000</v>
+        <v>1192.71</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.895000</v>
+        <v>-149.89500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>9596.554405</v>
+        <v>9596.5544050000008</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.665710</v>
+        <v>2.6657099999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1200.770000</v>
+        <v>1200.77</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.670000</v>
+        <v>-127.67</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>9607.018480</v>
+        <v>9607.0184800000006</v>
       </c>
       <c r="V24" s="1">
-        <v>2.668616</v>
+        <v>2.6686160000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1207.910000</v>
+        <v>1207.9100000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.905000</v>
+        <v>-106.905</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>9617.569378</v>
+        <v>9617.5693780000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.671547</v>
+        <v>2.6715469999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.787700</v>
+        <v>-89.787700000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>9628.708995</v>
+        <v>9628.7089950000009</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.674641</v>
+        <v>2.6746409999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1219.700000</v>
+        <v>1219.7</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.306900</v>
+        <v>-85.306899999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>9639.202853</v>
+        <v>9639.2028530000007</v>
       </c>
       <c r="AK24" s="1">
         <v>2.677556</v>
       </c>
       <c r="AL24" s="1">
-        <v>1226.650000</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.582300</v>
+        <v>-88.582300000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>9650.108077</v>
+        <v>9650.1080770000008</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.680586</v>
+        <v>2.6805859999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.379000</v>
+        <v>-100.379</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>9661.210344</v>
+        <v>9661.2103439999992</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.683670</v>
+        <v>2.6836700000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1244.270000</v>
+        <v>1244.27</v>
       </c>
       <c r="AW24" s="1">
-        <v>-119.495000</v>
+        <v>-119.495</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>9672.193285</v>
+        <v>9672.1932849999994</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.686720</v>
+        <v>2.6867200000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-136.781000</v>
+        <v>-136.78100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>9683.896364</v>
+        <v>9683.8963640000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.689971</v>
+        <v>2.6899709999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1292.030000</v>
+        <v>1292.03</v>
       </c>
       <c r="BG24" s="1">
-        <v>-217.818000</v>
+        <v>-217.81800000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>9694.954176</v>
+        <v>9694.9541759999993</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.693043</v>
+        <v>2.6930429999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="BL24" s="1">
-        <v>-353.146000</v>
+        <v>-353.14600000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>9705.335934</v>
+        <v>9705.3359340000006</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.695927</v>
+        <v>2.6959270000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1471.520000</v>
+        <v>1471.52</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-574.915000</v>
+        <v>-574.91499999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>9715.918576</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.698866</v>
+        <v>2.6988660000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1600.370000</v>
+        <v>1600.37</v>
       </c>
       <c r="BV24" s="1">
-        <v>-827.087000</v>
+        <v>-827.08699999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>9726.841969</v>
+        <v>9726.8419689999992</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.701901</v>
+        <v>2.7019009999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1750.060000</v>
+        <v>1750.06</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1101.460000</v>
+        <v>-1101.46</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>9740.067307</v>
+        <v>9740.0673069999993</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.705574</v>
+        <v>2.7055739999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2164.670000</v>
+        <v>2164.67</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1770.170000</v>
+        <v>-1770.17</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>9565.733448</v>
+        <v>9565.7334480000009</v>
       </c>
       <c r="B25" s="1">
-        <v>2.657148</v>
+        <v>2.6571479999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1143.470000</v>
+        <v>1143.47</v>
       </c>
       <c r="D25" s="1">
-        <v>-256.948000</v>
+        <v>-256.94799999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>9575.861257</v>
+        <v>9575.8612570000005</v>
       </c>
       <c r="G25" s="1">
         <v>2.659961</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.310000</v>
+        <v>1165.31</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.895000</v>
+        <v>-215.89500000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>9586.336795</v>
+        <v>9586.3367949999993</v>
       </c>
       <c r="L25" s="1">
         <v>2.662871</v>
       </c>
       <c r="M25" s="1">
-        <v>1192.980000</v>
+        <v>1192.98</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.859000</v>
+        <v>-149.85900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>9596.904029</v>
+        <v>9596.9040289999994</v>
       </c>
       <c r="Q25" s="1">
         <v>2.665807</v>
       </c>
       <c r="R25" s="1">
-        <v>1200.760000</v>
+        <v>1200.76</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.772000</v>
+        <v>-127.77200000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>9607.363169</v>
+        <v>9607.3631690000002</v>
       </c>
       <c r="V25" s="1">
-        <v>2.668712</v>
+        <v>2.6687120000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1207.930000</v>
+        <v>1207.93</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.819000</v>
+        <v>-106.819</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>9618.268736</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.671741</v>
+        <v>2.6717409999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.666300</v>
+        <v>-89.666300000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>9629.052227</v>
+        <v>9629.0522270000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.674737</v>
+        <v>2.6747369999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.261500</v>
+        <v>-85.261499999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>9639.550085</v>
+        <v>9639.5500850000008</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.677653</v>
+        <v>2.6776529999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1226.620000</v>
+        <v>1226.6199999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.590300</v>
+        <v>-88.590299999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>9650.466038</v>
+        <v>9650.4660380000005</v>
       </c>
       <c r="AP25" s="1">
         <v>2.680685</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.351000</v>
+        <v>-100.351</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>9661.574440</v>
+        <v>9661.5744400000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.683771</v>
+        <v>2.6837710000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1244.280000</v>
+        <v>1244.28</v>
       </c>
       <c r="AW25" s="1">
-        <v>-119.498000</v>
+        <v>-119.498</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>9672.848505</v>
+        <v>9672.8485049999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.686902</v>
+        <v>2.6869019999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-136.777000</v>
+        <v>-136.77699999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>9684.344251</v>
+        <v>9684.3442510000004</v>
       </c>
       <c r="BE25" s="1">
         <v>2.690096</v>
       </c>
       <c r="BF25" s="1">
-        <v>1292.080000</v>
+        <v>1292.08</v>
       </c>
       <c r="BG25" s="1">
-        <v>-217.807000</v>
+        <v>-217.80699999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>9695.062333</v>
+        <v>9695.0623329999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.693073</v>
+        <v>2.6930730000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1360.080000</v>
+        <v>1360.08</v>
       </c>
       <c r="BL25" s="1">
-        <v>-353.151000</v>
+        <v>-353.15100000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>9705.737725</v>
+        <v>9705.7377250000009</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.696038</v>
+        <v>2.6960380000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-574.880000</v>
+        <v>-574.88</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>9716.331247</v>
+        <v>9716.3312470000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.698981</v>
+        <v>2.6989809999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1600.170000</v>
+        <v>1600.17</v>
       </c>
       <c r="BV25" s="1">
-        <v>-827.024000</v>
+        <v>-827.024</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>9727.258112</v>
+        <v>9727.2581119999995</v>
       </c>
       <c r="BY25" s="1">
         <v>2.702016</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1750.120000</v>
+        <v>1750.12</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1101.640000</v>
+        <v>-1101.6400000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>9740.586640</v>
+        <v>9740.5866399999995</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.705719</v>
+        <v>2.7057190000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>2163.710000</v>
+        <v>2163.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1771.960000</v>
+        <v>-1771.96</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>9566.074198</v>
+        <v>9566.0741980000003</v>
       </c>
       <c r="B26" s="1">
-        <v>2.657243</v>
+        <v>2.6572429999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.560000</v>
+        <v>1143.56</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.320000</v>
+        <v>-257.32</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>9576.207464</v>
+        <v>9576.2074639999992</v>
       </c>
       <c r="G26" s="1">
-        <v>2.660058</v>
+        <v>2.6600579999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1165.340000</v>
+        <v>1165.3399999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.192000</v>
+        <v>-216.19200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>9586.685983</v>
+        <v>9586.6859829999994</v>
       </c>
       <c r="L26" s="1">
-        <v>2.662968</v>
+        <v>2.6629679999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1192.890000</v>
+        <v>1192.8900000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.777000</v>
+        <v>-149.77699999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>9597.600443</v>
+        <v>9597.6004429999994</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.666000</v>
+        <v>2.6659999999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.800000</v>
+        <v>-127.8</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>9608.051160</v>
+        <v>9608.0511600000009</v>
       </c>
       <c r="V26" s="1">
-        <v>2.668903</v>
+        <v>2.6689029999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1207.850000</v>
+        <v>1207.8499999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.919000</v>
+        <v>-106.919</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>9618.616896</v>
+        <v>9618.6168959999995</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.671838</v>
+        <v>2.6718380000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1215.210000</v>
+        <v>1215.21</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.703600</v>
+        <v>-89.703599999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>9629.397940</v>
+        <v>9629.3979400000007</v>
       </c>
       <c r="AF26" s="1">
         <v>2.674833</v>
       </c>
       <c r="AG26" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.249600</v>
+        <v>-85.249600000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>9639.899236</v>
+        <v>9639.8992359999993</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.677750</v>
+        <v>2.6777500000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1226.640000</v>
+        <v>1226.6400000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.560500</v>
+        <v>-88.560500000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>9651.132629</v>
+        <v>9651.1326289999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.680870</v>
+        <v>2.6808700000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.369000</v>
+        <v>-100.369</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>9662.279753</v>
+        <v>9662.2797530000007</v>
       </c>
       <c r="AU26" s="1">
         <v>2.683967</v>
       </c>
       <c r="AV26" s="1">
-        <v>1244.300000</v>
+        <v>1244.3</v>
       </c>
       <c r="AW26" s="1">
-        <v>-119.502000</v>
+        <v>-119.502</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>9673.278504</v>
+        <v>9673.2785039999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.687022</v>
+        <v>2.6870219999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-136.771000</v>
+        <v>-136.77099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>9684.704994</v>
+        <v>9684.7049939999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.690196</v>
+        <v>2.6901959999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG26" s="1">
-        <v>-217.815000</v>
+        <v>-217.815</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>9695.431324</v>
+        <v>9695.4313239999992</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.693175</v>
+        <v>2.6931750000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="BL26" s="1">
-        <v>-353.196000</v>
+        <v>-353.19600000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>9706.133502</v>
+        <v>9706.1335020000006</v>
       </c>
       <c r="BO26" s="1">
         <v>2.696148</v>
       </c>
       <c r="BP26" s="1">
-        <v>1471.550000</v>
+        <v>1471.55</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-574.903000</v>
+        <v>-574.90300000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>9716.758335</v>
+        <v>9716.7583350000004</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.699100</v>
+        <v>2.6991000000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1600.050000</v>
+        <v>1600.05</v>
       </c>
       <c r="BV26" s="1">
-        <v>-826.804000</v>
+        <v>-826.80399999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>9727.705042</v>
+        <v>9727.7050419999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.702140</v>
+        <v>2.70214</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1750.120000</v>
+        <v>1750.12</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1101.670000</v>
+        <v>-1101.67</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>9741.101987</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.705862</v>
+        <v>2.7058620000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>2163.860000</v>
+        <v>2163.86</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1771.150000</v>
+        <v>-1771.15</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>